--- a/2020天目山105装修清单汇总.xlsx
+++ b/2020天目山105装修清单汇总.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
   <si>
     <t>天目山装修清单汇总</t>
   </si>
@@ -82,6 +82,9 @@
     <t>浴帘杆</t>
   </si>
   <si>
+    <t>窗帘轨道</t>
+  </si>
+  <si>
     <t>毛巾架</t>
   </si>
   <si>
@@ -145,6 +148,9 @@
     <t>TCL</t>
   </si>
   <si>
+    <t>电磁炉</t>
+  </si>
+  <si>
     <t>电视</t>
   </si>
   <si>
@@ -208,6 +214,39 @@
     <t>纱帘</t>
   </si>
   <si>
+    <t>挂毯</t>
+  </si>
+  <si>
+    <t>隔断</t>
+  </si>
+  <si>
+    <t>茶具</t>
+  </si>
+  <si>
+    <t>奶锅</t>
+  </si>
+  <si>
+    <t>窗帘钩</t>
+  </si>
+  <si>
+    <t>纸巾架&amp;毛巾架</t>
+  </si>
+  <si>
+    <t>镜子</t>
+  </si>
+  <si>
+    <t>床褥</t>
+  </si>
+  <si>
+    <t>枕头*4</t>
+  </si>
+  <si>
+    <t>落地灯</t>
+  </si>
+  <si>
+    <t>床头柜*2</t>
+  </si>
+  <si>
     <t>地毯</t>
   </si>
   <si>
@@ -232,10 +271,13 @@
     <t>竹帘</t>
   </si>
   <si>
-    <t>吧台吧椅</t>
+    <t>吧台</t>
   </si>
   <si>
     <t>厨房</t>
+  </si>
+  <si>
+    <t>吧凳</t>
   </si>
   <si>
     <t>配件</t>
@@ -300,8 +342,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -321,6 +363,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -348,14 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -365,15 +400,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -388,14 +422,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,39 +443,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,8 +459,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,9 +477,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -485,7 +528,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -542,19 +585,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,157 +669,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,26 +828,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -848,17 +858,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -889,6 +893,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -902,142 +921,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,7 +1066,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1057,7 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1072,19 +1091,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
@@ -1105,19 +1127,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1129,14 +1160,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1147,13 +1178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1478,10 +1503,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="133" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="16.8"/>
@@ -1498,12 +1523,12 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
@@ -1518,18 +1543,18 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
@@ -1691,22 +1716,20 @@
       <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="11"/>
+      <c r="C16" s="13">
+        <v>157.1</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="11">
         <v>100</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C17" s="7">
-        <v>3300</v>
-      </c>
+      <c r="C17" s="11"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4">
@@ -1714,655 +1737,839 @@
         <v>24</v>
       </c>
       <c r="B18" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="7">
+        <v>3300</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="6">
         <v>800</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C19" s="7">
         <f>499.43+80</f>
         <v>579.43</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
+      <c r="D19" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B19" s="6">
-        <v>800</v>
-      </c>
-      <c r="C19" s="7">
-        <v>850</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6">
+        <v>800</v>
+      </c>
+      <c r="C20" s="7">
+        <v>850</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B20" s="6">
-        <v>300</v>
-      </c>
-      <c r="C20" s="7">
-        <v>193.14</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="6">
+        <v>300</v>
+      </c>
+      <c r="C21" s="7">
+        <v>193.14</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B21" s="6">
-        <v>450</v>
-      </c>
-      <c r="C21" s="7">
-        <v>225.31</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="6">
+        <v>450</v>
+      </c>
+      <c r="C22" s="7">
+        <v>225.31</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="4" t="s">
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="13" t="s">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="14">
-        <f>SUM(B5:B22)</f>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="15">
+        <f>SUM(B5:B23)</f>
         <v>55121</v>
       </c>
-      <c r="C23" s="14">
-        <f>SUM(C5:C22)</f>
-        <v>51567.88</v>
-      </c>
-      <c r="D23" s="15"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="C24" s="15">
+        <f>SUM(C5:C23)</f>
+        <v>51724.98</v>
+      </c>
+      <c r="D24" s="16"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="6">
         <v>500</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C26" s="7">
         <v>335.16</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="11" t="s">
+      <c r="D26" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="11">
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="11">
         <v>2300</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C27" s="11">
         <v>1999</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
+      <c r="D27" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1098.93</v>
-      </c>
-      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B28" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1098.93</v>
+      </c>
+      <c r="D28" s="19"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" s="6">
         <v>1199</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C29" s="7">
         <v>298</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="10" t="s">
+      <c r="D29" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="11">
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="13">
+        <v>169</v>
+      </c>
+      <c r="D30" s="19"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="11">
         <v>299</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="14">
-        <f>SUM(B25:B29)</f>
+      <c r="C31" s="11"/>
+      <c r="D31" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="15">
+        <f>SUM(B26:B31)</f>
         <v>5498</v>
       </c>
-      <c r="C30" s="14">
-        <f>SUM(C25:C29)</f>
-        <v>3731.09</v>
-      </c>
-      <c r="D30" s="15"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="7">
+      <c r="C32" s="15">
+        <f>SUM(C26:C31)</f>
+        <v>3900.09</v>
+      </c>
+      <c r="D32" s="16"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="7">
         <v>200</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C34" s="7">
         <v>551</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="11">
-        <f>258*2</f>
-        <v>516</v>
-      </c>
-      <c r="C33" s="11">
-        <v>252.24</v>
-      </c>
-      <c r="D33" s="18"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="19" t="s">
+      <c r="D34" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="7">
-        <v>50</v>
-      </c>
-      <c r="C34" s="7">
-        <v>30</v>
-      </c>
-      <c r="D34" s="18"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="10" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="11">
+        <f>258*2</f>
+        <v>516</v>
+      </c>
+      <c r="C35" s="11">
+        <v>252.24</v>
+      </c>
+      <c r="D35" s="19"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="7">
+        <v>50</v>
+      </c>
+      <c r="C36" s="7">
+        <v>30</v>
+      </c>
+      <c r="D36" s="19"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="11">
         <v>300</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="18"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="20">
+      <c r="C37" s="11"/>
+      <c r="D37" s="19"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="21">
         <v>139.7</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C38" s="7">
         <v>1020</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="20">
+      <c r="D38" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="21">
         <v>100</v>
       </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="18"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="11">
+      <c r="C39" s="7"/>
+      <c r="D39" s="19"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="11">
         <v>289</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="18"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B39" s="14">
-        <f>SUM(B32:B38)</f>
+      <c r="C40" s="13">
+        <v>470</v>
+      </c>
+      <c r="D40" s="19"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="15">
+        <f>SUM(B34:B40)</f>
         <v>1594.7</v>
       </c>
-      <c r="C39" s="14">
-        <f>SUM(C32:C38)</f>
-        <v>1853.24</v>
-      </c>
-      <c r="D39" s="15"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="11">
-        <v>1500</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="21" t="s">
+      <c r="C41" s="15">
+        <f>SUM(C34:C40)</f>
+        <v>2323.24</v>
+      </c>
+      <c r="D41" s="16"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="17" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B42" s="7">
-        <v>4500</v>
-      </c>
-      <c r="C42" s="7">
-        <v>1930</v>
-      </c>
-      <c r="D42" s="22"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="11">
+        <v>1500</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="11">
-        <v>1000</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="11" t="s">
+      <c r="A44" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="11">
-        <v>100</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="22"/>
+      <c r="B44" s="7">
+        <v>4500</v>
+      </c>
+      <c r="C44" s="7">
+        <v>1930</v>
+      </c>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B45" s="11">
-        <v>50</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="22"/>
+        <v>1000</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1122.88</v>
+      </c>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B46" s="11">
+        <v>100</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="23"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="11">
+        <v>50</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="11">
         <v>2000</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="22"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="22"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="22"/>
+      <c r="C48" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="11">
-        <v>500</v>
-      </c>
-      <c r="C49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="13">
+        <v>360</v>
+      </c>
       <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="11"/>
+      <c r="C50">
+        <v>29.9</v>
+      </c>
+      <c r="D50" s="23"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51" s="11"/>
+      <c r="C51" s="13">
+        <v>87.22</v>
+      </c>
+      <c r="D51" s="24"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="13">
+        <v>234</v>
+      </c>
+      <c r="D52" s="24"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" s="11"/>
+      <c r="C53" s="13">
+        <v>112</v>
+      </c>
+      <c r="D53" s="24"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="13">
+        <v>29.9</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="F54">
+        <v>110.38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="11"/>
+      <c r="C55" s="13">
+        <v>28.6</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="F55">
+        <v>62.64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="13">
+        <v>47.8</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="F56">
+        <f>SUM(F54:F55)*2</f>
+        <v>346.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="11"/>
+      <c r="C57" s="13">
+        <v>162.95</v>
+      </c>
+      <c r="D57" s="24"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58">
+        <v>246</v>
+      </c>
+      <c r="D58" s="24"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59">
+        <v>346.04</v>
+      </c>
+      <c r="D59" s="24"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" s="11"/>
+      <c r="C60" s="13">
+        <v>733.23</v>
+      </c>
+      <c r="D60" s="24"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="10"/>
+      <c r="B61" s="11"/>
+      <c r="D61" s="24"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="10"/>
+      <c r="B62" s="11"/>
+      <c r="D62" s="24"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="10"/>
+      <c r="B63" s="11"/>
+      <c r="D63" s="24"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="10"/>
+      <c r="B64" s="11"/>
+      <c r="D64" s="24"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B65" s="11"/>
+      <c r="C65" s="13">
+        <v>840</v>
+      </c>
+      <c r="D65" s="24"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B66" s="11">
+        <v>500</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="27"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B67" s="11">
         <v>800</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="6">
-        <v>1200</v>
-      </c>
-      <c r="C51" s="7">
-        <v>1000</v>
-      </c>
-      <c r="D51" s="25"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="26">
-        <v>300</v>
-      </c>
-      <c r="C52" s="27">
-        <v>155</v>
-      </c>
-      <c r="D52" s="28"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B53" s="11">
-        <v>1200</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="27">
-        <v>240</v>
-      </c>
-      <c r="D54" s="29"/>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1500</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="29" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B57" s="30">
-        <f>SUM(B41:B55)</f>
-        <v>14650</v>
-      </c>
-      <c r="C57" s="30">
-        <f>SUM(C41:C55)</f>
-        <v>3325</v>
-      </c>
-      <c r="D57" s="31"/>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="18"/>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="18"/>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="18"/>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="18"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="18"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="6" t="s">
+      <c r="C67" s="11"/>
+      <c r="D67" s="28" t="s">
         <v>79</v>
-      </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="18"/>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C68" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D68" s="29"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="30">
+        <v>300</v>
+      </c>
+      <c r="C69" s="13">
+        <v>155.04</v>
+      </c>
+      <c r="D69" s="31"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="11">
+        <v>1200</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="6" t="s">
+      <c r="B71" s="7"/>
+      <c r="C71" s="33">
+        <v>240</v>
+      </c>
+      <c r="D71" s="32"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="6" t="s">
+      <c r="B72" s="11">
+        <v>1500</v>
+      </c>
+      <c r="C72" s="13">
+        <v>315.5</v>
+      </c>
+      <c r="D72" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="6" t="s">
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>87</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="B72" s="30">
-        <f>SUM(B62:B71)</f>
+      <c r="C73" s="13">
+        <v>299.52</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="34">
+        <f>SUM(B43:B72)</f>
+        <v>14650</v>
+      </c>
+      <c r="C74" s="34">
+        <f>SUM(C43:C72)</f>
+        <v>10021.06</v>
+      </c>
+      <c r="D74" s="35"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="19"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="19"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="19"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="19"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="19"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="19"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B89" s="34">
+        <f>SUM(B79:B88)</f>
         <v>0</v>
       </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B74" s="36">
-        <f>B23+B30+B39+B57+B72</f>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B91" s="38">
+        <f>B24+B32+B41+B74+B89</f>
         <v>76863.7</v>
       </c>
-      <c r="C74" s="36">
-        <f>C23+C30+C39+C57+C72</f>
-        <v>60477.21</v>
-      </c>
-      <c r="D74" s="36"/>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B76" s="11">
+      <c r="C91" s="38">
+        <f>C24+C32+C41+C74+C89</f>
+        <v>67969.37</v>
+      </c>
+      <c r="D91" s="38"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="11">
         <f>400*4</f>
         <v>1600</v>
       </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="18"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
+      <c r="C93">
+        <v>924</v>
+      </c>
+      <c r="D93" s="19"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="6"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="6"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="6"/>
+      <c r="D96" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="D41:D49"/>
-    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A92:D92"/>
+    <mergeCell ref="D43:D66"/>
+    <mergeCell ref="D67:D69"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
